--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.37539875209167</v>
+        <v>17.85965566666667</v>
       </c>
       <c r="H2">
-        <v>9.37539875209167</v>
+        <v>53.578967</v>
       </c>
       <c r="I2">
-        <v>0.3083773113212576</v>
+        <v>0.4399433554208643</v>
       </c>
       <c r="J2">
-        <v>0.3083773113212576</v>
+        <v>0.4399433554208643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N2">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O2">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P2">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q2">
-        <v>9.898814956008481</v>
+        <v>63.140776608754</v>
       </c>
       <c r="R2">
-        <v>9.898814956008481</v>
+        <v>568.2669894787861</v>
       </c>
       <c r="S2">
-        <v>0.001868518084983442</v>
+        <v>0.008749364033269678</v>
       </c>
       <c r="T2">
-        <v>0.001868518084983442</v>
+        <v>0.008749364033269676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.37539875209167</v>
+        <v>17.85965566666667</v>
       </c>
       <c r="H3">
-        <v>9.37539875209167</v>
+        <v>53.578967</v>
       </c>
       <c r="I3">
-        <v>0.3083773113212576</v>
+        <v>0.4399433554208643</v>
       </c>
       <c r="J3">
-        <v>0.3083773113212576</v>
+        <v>0.4399433554208643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N3">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O3">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P3">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q3">
-        <v>1620.52454415566</v>
+        <v>3104.345946440727</v>
       </c>
       <c r="R3">
-        <v>1620.52454415566</v>
+        <v>27939.11351796654</v>
       </c>
       <c r="S3">
-        <v>0.3058931226991413</v>
+        <v>0.4301665932764174</v>
       </c>
       <c r="T3">
-        <v>0.3058931226991413</v>
+        <v>0.4301665932764174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.37539875209167</v>
+        <v>17.85965566666667</v>
       </c>
       <c r="H4">
-        <v>9.37539875209167</v>
+        <v>53.578967</v>
       </c>
       <c r="I4">
-        <v>0.3083773113212576</v>
+        <v>0.4399433554208643</v>
       </c>
       <c r="J4">
-        <v>0.3083773113212576</v>
+        <v>0.4399433554208643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N4">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O4">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P4">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q4">
-        <v>0.6442689179393669</v>
+        <v>1.233893843917222</v>
       </c>
       <c r="R4">
-        <v>0.6442689179393669</v>
+        <v>11.105044595255</v>
       </c>
       <c r="S4">
-        <v>0.0001216133577718521</v>
+        <v>0.0001709796267749019</v>
       </c>
       <c r="T4">
-        <v>0.0001216133577718521</v>
+        <v>0.0001709796267749018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.37539875209167</v>
+        <v>17.85965566666667</v>
       </c>
       <c r="H5">
-        <v>9.37539875209167</v>
+        <v>53.578967</v>
       </c>
       <c r="I5">
-        <v>0.3083773113212576</v>
+        <v>0.4399433554208643</v>
       </c>
       <c r="J5">
-        <v>0.3083773113212576</v>
+        <v>0.4399433554208643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.279172969883544</v>
+        <v>0.346056</v>
       </c>
       <c r="N5">
-        <v>0.279172969883544</v>
+        <v>1.038168</v>
       </c>
       <c r="O5">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378565</v>
       </c>
       <c r="P5">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378564</v>
       </c>
       <c r="Q5">
-        <v>2.617357913463904</v>
+        <v>6.180441001383999</v>
       </c>
       <c r="R5">
-        <v>2.617357913463904</v>
+        <v>55.62396901245599</v>
       </c>
       <c r="S5">
-        <v>0.0004940571793609796</v>
+        <v>0.0008564184844023174</v>
       </c>
       <c r="T5">
-        <v>0.0004940571793609796</v>
+        <v>0.0008564184844023173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.17383271150395</v>
+        <v>2.191749666666666</v>
       </c>
       <c r="H6">
-        <v>2.17383271150395</v>
+        <v>6.575248999999999</v>
       </c>
       <c r="I6">
-        <v>0.07150209869060005</v>
+        <v>0.05399016199374809</v>
       </c>
       <c r="J6">
-        <v>0.07150209869060005</v>
+        <v>0.05399016199374809</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N6">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O6">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P6">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q6">
-        <v>2.29519493788944</v>
+        <v>7.748681087038</v>
       </c>
       <c r="R6">
-        <v>2.29519493788944</v>
+        <v>69.738129783342</v>
       </c>
       <c r="S6">
-        <v>0.0004332451176295319</v>
+        <v>0.00107372818722676</v>
       </c>
       <c r="T6">
-        <v>0.0004332451176295319</v>
+        <v>0.00107372818722676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.17383271150395</v>
+        <v>2.191749666666666</v>
       </c>
       <c r="H7">
-        <v>2.17383271150395</v>
+        <v>6.575248999999999</v>
       </c>
       <c r="I7">
-        <v>0.07150209869060005</v>
+        <v>0.05399016199374809</v>
       </c>
       <c r="J7">
-        <v>0.07150209869060005</v>
+        <v>0.05399016199374809</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N7">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O7">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P7">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q7">
-        <v>375.743939754527</v>
+        <v>380.9675460892787</v>
       </c>
       <c r="R7">
-        <v>375.743939754527</v>
+        <v>3428.707914803509</v>
       </c>
       <c r="S7">
-        <v>0.0709261007377559</v>
+        <v>0.05279035077839725</v>
       </c>
       <c r="T7">
-        <v>0.0709261007377559</v>
+        <v>0.05279035077839724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.17383271150395</v>
+        <v>2.191749666666666</v>
       </c>
       <c r="H8">
-        <v>2.17383271150395</v>
+        <v>6.575248999999999</v>
       </c>
       <c r="I8">
-        <v>0.07150209869060005</v>
+        <v>0.05399016199374809</v>
       </c>
       <c r="J8">
-        <v>0.07150209869060005</v>
+        <v>0.05399016199374809</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N8">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O8">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P8">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q8">
-        <v>0.1493838167159971</v>
+        <v>0.1514243315538889</v>
       </c>
       <c r="R8">
-        <v>0.1493838167159971</v>
+        <v>1.362818983985</v>
       </c>
       <c r="S8">
-        <v>2.819795747048139E-05</v>
+        <v>2.098274160403367E-05</v>
       </c>
       <c r="T8">
-        <v>2.819795747048139E-05</v>
+        <v>2.098274160403366E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.17383271150395</v>
+        <v>2.191749666666666</v>
       </c>
       <c r="H9">
-        <v>2.17383271150395</v>
+        <v>6.575248999999999</v>
       </c>
       <c r="I9">
-        <v>0.07150209869060005</v>
+        <v>0.05399016199374809</v>
       </c>
       <c r="J9">
-        <v>0.07150209869060005</v>
+        <v>0.05399016199374809</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.279172969883544</v>
+        <v>0.346056</v>
       </c>
       <c r="N9">
-        <v>0.279172969883544</v>
+        <v>1.038168</v>
       </c>
       <c r="O9">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378565</v>
       </c>
       <c r="P9">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378564</v>
       </c>
       <c r="Q9">
-        <v>0.6068753341005551</v>
+        <v>0.7584681226479999</v>
       </c>
       <c r="R9">
-        <v>0.6068753341005551</v>
+        <v>6.826213103831999</v>
       </c>
       <c r="S9">
-        <v>0.0001145548777441238</v>
+        <v>0.0001051002865200416</v>
       </c>
       <c r="T9">
-        <v>0.0001145548777441238</v>
+        <v>0.0001051002865200416</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.88642437791</v>
+        <v>7.079289333333333</v>
       </c>
       <c r="H10">
-        <v>5.88642437791</v>
+        <v>21.237868</v>
       </c>
       <c r="I10">
-        <v>0.1936173352147618</v>
+        <v>0.1743866937543869</v>
       </c>
       <c r="J10">
-        <v>0.1936173352147618</v>
+        <v>0.1743866937543869</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N10">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O10">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P10">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q10">
-        <v>6.215055722986564</v>
+        <v>25.028020399016</v>
       </c>
       <c r="R10">
-        <v>6.215055722986564</v>
+        <v>225.252183591144</v>
       </c>
       <c r="S10">
-        <v>0.001173165077758252</v>
+        <v>0.003468111627134003</v>
       </c>
       <c r="T10">
-        <v>0.001173165077758252</v>
+        <v>0.003468111627134002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.88642437791</v>
+        <v>7.079289333333333</v>
       </c>
       <c r="H11">
-        <v>5.88642437791</v>
+        <v>21.237868</v>
       </c>
       <c r="I11">
-        <v>0.1936173352147618</v>
+        <v>0.1743866937543869</v>
       </c>
       <c r="J11">
-        <v>0.1936173352147618</v>
+        <v>0.1743866937543869</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N11">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O11">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P11">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q11">
-        <v>1017.4602098488</v>
+        <v>1230.514381452021</v>
       </c>
       <c r="R11">
-        <v>1017.4602098488</v>
+        <v>11074.62943306819</v>
       </c>
       <c r="S11">
-        <v>0.1920576161189431</v>
+        <v>0.1705113375182138</v>
       </c>
       <c r="T11">
-        <v>0.1920576161189431</v>
+        <v>0.1705113375182138</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.88642437791</v>
+        <v>7.079289333333333</v>
       </c>
       <c r="H12">
-        <v>5.88642437791</v>
+        <v>21.237868</v>
       </c>
       <c r="I12">
-        <v>0.1936173352147618</v>
+        <v>0.1743866937543869</v>
       </c>
       <c r="J12">
-        <v>0.1936173352147618</v>
+        <v>0.1743866937543869</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N12">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O12">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P12">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q12">
-        <v>0.4045097563068329</v>
+        <v>0.4890963012244444</v>
       </c>
       <c r="R12">
-        <v>0.4045097563068329</v>
+        <v>4.40186671102</v>
       </c>
       <c r="S12">
-        <v>7.635598792083476E-05</v>
+        <v>6.777366096167237E-05</v>
       </c>
       <c r="T12">
-        <v>7.635598792083476E-05</v>
+        <v>6.777366096167235E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.88642437791</v>
+        <v>7.079289333333333</v>
       </c>
       <c r="H13">
-        <v>5.88642437791</v>
+        <v>21.237868</v>
       </c>
       <c r="I13">
-        <v>0.1936173352147618</v>
+        <v>0.1743866937543869</v>
       </c>
       <c r="J13">
-        <v>0.1936173352147618</v>
+        <v>0.1743866937543869</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.279172969883544</v>
+        <v>0.346056</v>
       </c>
       <c r="N13">
-        <v>0.279172969883544</v>
+        <v>1.038168</v>
       </c>
       <c r="O13">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378565</v>
       </c>
       <c r="P13">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378564</v>
       </c>
       <c r="Q13">
-        <v>1.643330575576028</v>
+        <v>2.449830549536</v>
       </c>
       <c r="R13">
-        <v>1.643330575576028</v>
+        <v>22.048474945824</v>
       </c>
       <c r="S13">
-        <v>0.0003101980301395812</v>
+        <v>0.0003394709480773767</v>
       </c>
       <c r="T13">
-        <v>0.0003101980301395812</v>
+        <v>0.0003394709480773766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.9667064850946</v>
+        <v>13.464658</v>
       </c>
       <c r="H14">
-        <v>12.9667064850946</v>
+        <v>40.393974</v>
       </c>
       <c r="I14">
-        <v>0.4265032547733805</v>
+        <v>0.3316797888310007</v>
       </c>
       <c r="J14">
-        <v>0.4265032547733805</v>
+        <v>0.3316797888310007</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.05582868715851</v>
+        <v>3.535386</v>
       </c>
       <c r="N14">
-        <v>1.05582868715851</v>
+        <v>10.606158</v>
       </c>
       <c r="O14">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="P14">
-        <v>0.006059194423148982</v>
+        <v>0.01988747852527457</v>
       </c>
       <c r="Q14">
-        <v>13.69062068492717</v>
+        <v>47.60276338798801</v>
       </c>
       <c r="R14">
-        <v>13.69062068492717</v>
+        <v>428.424870491892</v>
       </c>
       <c r="S14">
-        <v>0.002584266142777757</v>
+        <v>0.006596274677644132</v>
       </c>
       <c r="T14">
-        <v>0.002584266142777757</v>
+        <v>0.006596274677644129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.9667064850946</v>
+        <v>13.464658</v>
       </c>
       <c r="H15">
-        <v>12.9667064850946</v>
+        <v>40.393974</v>
       </c>
       <c r="I15">
-        <v>0.4265032547733805</v>
+        <v>0.3316797888310007</v>
       </c>
       <c r="J15">
-        <v>0.4265032547733805</v>
+        <v>0.3316797888310007</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>172.84859951094</v>
+        <v>173.8189136666666</v>
       </c>
       <c r="N15">
-        <v>172.84859951094</v>
+        <v>521.456741</v>
       </c>
       <c r="O15">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268709</v>
       </c>
       <c r="P15">
-        <v>0.9919443210284419</v>
+        <v>0.9777772251268707</v>
       </c>
       <c r="Q15">
-        <v>2241.277056218025</v>
+        <v>2340.412226453192</v>
       </c>
       <c r="R15">
-        <v>2241.277056218025</v>
+        <v>21063.71003807873</v>
       </c>
       <c r="S15">
-        <v>0.4230674814726015</v>
+        <v>0.3243089435538424</v>
       </c>
       <c r="T15">
-        <v>0.4230674814726015</v>
+        <v>0.3243089435538423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.9667064850946</v>
+        <v>13.464658</v>
       </c>
       <c r="H16">
-        <v>12.9667064850946</v>
+        <v>40.393974</v>
       </c>
       <c r="I16">
-        <v>0.4265032547733805</v>
+        <v>0.3316797888310007</v>
       </c>
       <c r="J16">
-        <v>0.4265032547733805</v>
+        <v>0.3316797888310007</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0687190950460245</v>
+        <v>0.06908833333333333</v>
       </c>
       <c r="N16">
-        <v>0.0687190950460245</v>
+        <v>0.207265</v>
       </c>
       <c r="O16">
-        <v>0.0003943654520197798</v>
+        <v>0.000388640093475982</v>
       </c>
       <c r="P16">
-        <v>0.0003943654520197798</v>
+        <v>0.0003886400934759819</v>
       </c>
       <c r="Q16">
-        <v>0.891060335383118</v>
+        <v>0.9302507801233334</v>
       </c>
       <c r="R16">
-        <v>0.891060335383118</v>
+        <v>8.37225702111</v>
       </c>
       <c r="S16">
-        <v>0.0001681981488566115</v>
+        <v>0.0001289040641353741</v>
       </c>
       <c r="T16">
-        <v>0.0001681981488566115</v>
+        <v>0.000128904064135374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.9667064850946</v>
+        <v>13.464658</v>
       </c>
       <c r="H17">
-        <v>12.9667064850946</v>
+        <v>40.393974</v>
       </c>
       <c r="I17">
-        <v>0.4265032547733805</v>
+        <v>0.3316797888310007</v>
       </c>
       <c r="J17">
-        <v>0.4265032547733805</v>
+        <v>0.3316797888310007</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.279172969883544</v>
+        <v>0.346056</v>
       </c>
       <c r="N17">
-        <v>0.279172969883544</v>
+        <v>1.038168</v>
       </c>
       <c r="O17">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378565</v>
       </c>
       <c r="P17">
-        <v>0.001602119096389315</v>
+        <v>0.001946656254378564</v>
       </c>
       <c r="Q17">
-        <v>3.61995395905207</v>
+        <v>4.659525688847999</v>
       </c>
       <c r="R17">
-        <v>3.61995395905207</v>
+        <v>41.935731199632</v>
       </c>
       <c r="S17">
-        <v>0.00068330900914463</v>
+        <v>0.0006456665353788291</v>
       </c>
       <c r="T17">
-        <v>0.00068330900914463</v>
+        <v>0.000645666535378829</v>
       </c>
     </row>
   </sheetData>
